--- a/dev_doc/konnekting_ledmatrixclock.xlsx
+++ b/dev_doc/konnekting_ledmatrixclock.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BEE610-0CA8-4D29-BDE7-6729E4009B34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Arduino uC Board</t>
   </si>
@@ -74,12 +73,18 @@
   </si>
   <si>
     <t>Display stuff</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Kos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,18 +388,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +468,16 @@
         <v>15</v>
       </c>
     </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
